--- a/DOM_Banner/output/dept_banner/Abhijeet Kumar_2023.xlsx
+++ b/DOM_Banner/output/dept_banner/Abhijeet Kumar_2023.xlsx
@@ -351,7 +351,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:P6"/>
+  <dimension ref="A1:Q6"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -365,75 +365,80 @@
       </c>
       <c r="B1" s="1" t="inlineStr">
         <is>
+          <t>affiliation</t>
+        </is>
+      </c>
+      <c r="C1" s="1" t="inlineStr">
+        <is>
           <t>id</t>
         </is>
       </c>
-      <c r="C1" s="1" t="inlineStr">
+      <c r="D1" s="1" t="inlineStr">
         <is>
           <t>display_name</t>
         </is>
       </c>
-      <c r="D1" s="1" t="inlineStr">
+      <c r="E1" s="1" t="inlineStr">
         <is>
           <t>publication_date</t>
         </is>
       </c>
-      <c r="E1" s="1" t="inlineStr">
+      <c r="F1" s="1" t="inlineStr">
         <is>
           <t>so</t>
         </is>
       </c>
-      <c r="F1" s="1" t="inlineStr">
+      <c r="G1" s="1" t="inlineStr">
         <is>
           <t>host_organization</t>
         </is>
       </c>
-      <c r="G1" s="1" t="inlineStr">
+      <c r="H1" s="1" t="inlineStr">
         <is>
           <t>url</t>
         </is>
       </c>
-      <c r="H1" s="1" t="inlineStr">
+      <c r="I1" s="1" t="inlineStr">
         <is>
           <t>license</t>
         </is>
       </c>
-      <c r="I1" s="1" t="inlineStr">
+      <c r="J1" s="1" t="inlineStr">
         <is>
           <t>version</t>
         </is>
       </c>
-      <c r="J1" s="1" t="inlineStr">
+      <c r="K1" s="1" t="inlineStr">
         <is>
           <t>oa_status</t>
         </is>
       </c>
-      <c r="K1" s="1" t="inlineStr">
+      <c r="L1" s="1" t="inlineStr">
         <is>
           <t>language</t>
         </is>
       </c>
-      <c r="L1" s="1" t="inlineStr">
+      <c r="M1" s="1" t="inlineStr">
         <is>
           <t>cited_by_count</t>
         </is>
       </c>
-      <c r="M1" s="1" t="inlineStr">
+      <c r="N1" s="1" t="inlineStr">
         <is>
           <t>publication_year</t>
         </is>
       </c>
-      <c r="N1" s="1" t="inlineStr">
+      <c r="O1" s="1" t="inlineStr">
         <is>
           <t>pmid</t>
         </is>
       </c>
-      <c r="O1" s="1" t="inlineStr">
+      <c r="P1" s="1" t="inlineStr">
         <is>
           <t>doi</t>
         </is>
       </c>
-      <c r="P1" s="1" t="inlineStr">
+      <c r="Q1" s="1" t="inlineStr">
         <is>
           <t>type</t>
         </is>
@@ -447,75 +452,80 @@
       </c>
       <c r="B2" t="inlineStr">
         <is>
+          <t>Heidelberg Institute of Global Health, Heidelberg University Hospital, Im Neuenheimer Feld 130.3, 69120, Heidelberg, Germany; Centre for Modern Indian Studies (CeMIS), University of Goettingen, Göttingen, Germany; Centre for Modern Indian Studies (CeMIS), University of Goettingen, Göttingen, Germany; Centre for Modern Indian Studies (CeMIS), University of Goettingen, Göttingen, Germany; Heidelberg Institute of Global Health, Heidelberg University Hospital, Im Neuenheimer Feld 130.3, 69120, Heidelberg, Germany; Heidelberg Institute of Global Health, Heidelberg University Hospital, Im Neuenheimer Feld 130.3, 69120, Heidelberg, Germany; Centre for Modern Indian Studies (CeMIS), University of Goettingen, Göttingen, Germany</t>
+        </is>
+      </c>
+      <c r="C2" t="inlineStr">
+        <is>
           <t>https://openalex.org/W4353064716</t>
         </is>
       </c>
-      <c r="C2" t="inlineStr">
+      <c r="D2" t="inlineStr">
         <is>
           <t>Smartphone-based point-of-care anemia screening in rural Bihar in India</t>
         </is>
       </c>
-      <c r="D2" t="inlineStr">
+      <c r="E2" t="inlineStr">
         <is>
           <t>2023-03-22</t>
         </is>
       </c>
-      <c r="E2" t="inlineStr">
+      <c r="F2" t="inlineStr">
         <is>
           <t>Communications Medicine</t>
         </is>
       </c>
-      <c r="F2" t="inlineStr">
+      <c r="G2" t="inlineStr">
         <is>
           <t>Nature Portfolio</t>
         </is>
       </c>
-      <c r="G2" t="inlineStr">
+      <c r="H2" t="inlineStr">
         <is>
           <t>https://doi.org/10.1038/s43856-023-00267-z</t>
         </is>
       </c>
-      <c r="H2" t="inlineStr">
+      <c r="I2" t="inlineStr">
         <is>
           <t>cc-by</t>
         </is>
       </c>
-      <c r="I2" t="inlineStr">
+      <c r="J2" t="inlineStr">
         <is>
           <t>publishedVersion</t>
         </is>
       </c>
-      <c r="J2" t="inlineStr">
+      <c r="K2" t="inlineStr">
         <is>
           <t>gold</t>
         </is>
       </c>
-      <c r="K2" t="inlineStr">
+      <c r="L2" t="inlineStr">
         <is>
           <t>en</t>
         </is>
       </c>
-      <c r="L2" t="inlineStr">
+      <c r="M2" t="inlineStr">
         <is>
           <t>1</t>
         </is>
       </c>
-      <c r="M2" t="inlineStr">
+      <c r="N2" t="inlineStr">
         <is>
           <t>2023</t>
         </is>
       </c>
-      <c r="N2" t="inlineStr">
+      <c r="O2" t="inlineStr">
         <is>
           <t>https://pubmed.ncbi.nlm.nih.gov/36949164</t>
         </is>
       </c>
-      <c r="O2" t="inlineStr">
+      <c r="P2" t="inlineStr">
         <is>
           <t>https://doi.org/10.1038/s43856-023-00267-z</t>
         </is>
       </c>
-      <c r="P2" t="inlineStr">
+      <c r="Q2" t="inlineStr">
         <is>
           <t>article</t>
         </is>
@@ -529,75 +539,80 @@
       </c>
       <c r="B3" t="inlineStr">
         <is>
+          <t>Department of Agricultural Economics and Rural Development University of Goettingen  Platz der Göttinger Sieben 5 37073 Göttingen Germany; IDinsight India Private Limited, New Delhi, India; Centre for Modern Indian Studies University of Goettingen  Göttingen Germany; IZA, Bonn, Germany; Keough School of Global Affairs &amp; Eck Institute for Global Health, University of Notre Dame, Notre Dame, Indiana, 46556 USA; Centre for Modern Indian Studies University of Goettingen  Göttingen Germany; Department of Economics University of Goettingen  Göttingen Germany</t>
+        </is>
+      </c>
+      <c r="C3" t="inlineStr">
+        <is>
           <t>https://openalex.org/W4367369327</t>
         </is>
       </c>
-      <c r="C3" t="inlineStr">
+      <c r="D3" t="inlineStr">
         <is>
           <t>Medium‐Run Impacts of Iron‐Fortified School Lunch on Anaemia, Cognition, and Learning Outcomes in India*</t>
         </is>
       </c>
-      <c r="D3" t="inlineStr">
+      <c r="E3" t="inlineStr">
         <is>
           <t>2023-04-28</t>
         </is>
       </c>
-      <c r="E3" t="inlineStr">
+      <c r="F3" t="inlineStr">
         <is>
           <t>Oxford Bulletin of Economics and Statistics</t>
         </is>
       </c>
-      <c r="F3" t="inlineStr">
+      <c r="G3" t="inlineStr">
         <is>
           <t>Wiley-Blackwell</t>
         </is>
       </c>
-      <c r="G3" t="inlineStr">
+      <c r="H3" t="inlineStr">
         <is>
           <t>https://doi.org/10.1111/obes.12559</t>
         </is>
       </c>
-      <c r="H3" t="inlineStr">
+      <c r="I3" t="inlineStr">
         <is>
           <t>cc-by-nc-nd</t>
         </is>
       </c>
-      <c r="I3" t="inlineStr">
+      <c r="J3" t="inlineStr">
         <is>
           <t>publishedVersion</t>
         </is>
       </c>
-      <c r="J3" t="inlineStr">
+      <c r="K3" t="inlineStr">
         <is>
           <t>hybrid</t>
         </is>
       </c>
-      <c r="K3" t="inlineStr">
+      <c r="L3" t="inlineStr">
         <is>
           <t>en</t>
         </is>
       </c>
-      <c r="L3" t="inlineStr">
+      <c r="M3" t="inlineStr">
         <is>
           <t>0</t>
         </is>
       </c>
-      <c r="M3" t="inlineStr">
+      <c r="N3" t="inlineStr">
         <is>
           <t>2023</t>
         </is>
       </c>
-      <c r="N3" t="inlineStr">
+      <c r="O3" t="inlineStr">
         <is>
           <t>NA</t>
         </is>
       </c>
-      <c r="O3" t="inlineStr">
+      <c r="P3" t="inlineStr">
         <is>
           <t>https://doi.org/10.1111/obes.12559</t>
         </is>
       </c>
-      <c r="P3" t="inlineStr">
+      <c r="Q3" t="inlineStr">
         <is>
           <t>article</t>
         </is>
@@ -606,80 +621,85 @@
     <row r="4">
       <c r="A4" t="inlineStr">
         <is>
-          <t>Lisa Bogler, Christian Bommer, Cara Ebert, Abhijeet Kumar, S. V. Subramanian, Malavika A. Subramanyam, Sebastián Vollmer</t>
+          <t>John F. Seymour, Chan Y. Cheah, Ricardo Parrondo, Meghan C. Thompson, Don A. Stevens, Masa Lasica, Michael L. Wang, Abhijeet Kumar, Judith Trotman, Maan Alwan, Wei Ding, Kunthel By, Bilal Tariq, Xiangmei Chen, Shannon Fabre, Jason C. Paik, Amit Kumar Agarwal, Constantine S. Tam</t>
         </is>
       </c>
       <c r="B4" t="inlineStr">
         <is>
-          <t>https://openalex.org/W4378908533</t>
+          <t>1Peter Maccallum Cancer Centre, Royal Melbourne Hospital and University of Melbourne, Melbourne, AUS; 2Department of Haematology, Sir Charles Gairdner Hospital and Pathwest Laboratory Medicine, Nedlands, Australia; 3Medical School, University of Western Australia, Crawley, Australia; 4Linear Clinical Research and Sir Charles Gairdner Hospital, Nedlands, Australia; 5Mayo Clinic, Jacksonville, FL; 6Memorial Sloan Kettering Cancer Center, New York, NY; 7Norton Cancer Institute, Louisville, KY; 8Department of Haematology, St Vincent's Hospital Melbourne, Victoria, Australia, Fitzroy, Australia; 9MD Anderson Cancer Center, Houston, TX; 10University of Arizona College of Medicine - Tucson, Tucson, AZ; 11Concord Repatriation General Hospital, University of Sydney, Concord, Australia; 12Perth Blood Institute, West Perth, Australia; 13Mayo Clinic-Rochester, Rochester, MN; 14BeiGene USA, Inc, San Mateo, CA; 14BeiGene USA, Inc, San Mateo, CA; 15BeiGene (Shanghai) Co, Ltd, Shanghai, China; 14BeiGene USA, Inc, San Mateo, CA; 14BeiGene USA, Inc, San Mateo, CA; 16BeiGene, San Mateo, CA; 17Alfred Hospital, Melbourne, Australia; 18Monash University, Clayton, Australia</t>
         </is>
       </c>
       <c r="C4" t="inlineStr">
         <is>
-          <t>Effects of a large-scale participatory learning and action programme in women’s groups on health, nutrition, water, sanitation, and hygiene: a cluster-randomised controlled trial in Bihar, India</t>
+          <t>https://openalex.org/W4389231314</t>
         </is>
       </c>
       <c r="D4" t="inlineStr">
         <is>
-          <t>2023-05-30</t>
+          <t>First Results from a Phase 1, First-in-Human Study of the Bruton's Tyrosine Kinase (BTK) Degrader Bgb-16673 in Patients (Pts) with Relapsed or Refractory (R/R) B-Cell Malignancies (BGB-16673-101)</t>
         </is>
       </c>
       <c r="E4" t="inlineStr">
         <is>
-          <t>Journal of Development Effectiveness</t>
+          <t>2023-11-28</t>
         </is>
       </c>
       <c r="F4" t="inlineStr">
         <is>
-          <t>Taylor &amp; Francis</t>
+          <t>Blood</t>
         </is>
       </c>
       <c r="G4" t="inlineStr">
         <is>
-          <t>https://doi.org/10.1080/19439342.2023.2217164</t>
+          <t>Elsevier BV</t>
         </is>
       </c>
       <c r="H4" t="inlineStr">
         <is>
-          <t>cc-by-nc-nd</t>
+          <t>https://doi.org/10.1182/blood-2023-180109</t>
         </is>
       </c>
       <c r="I4" t="inlineStr">
         <is>
+          <t>N/A</t>
+        </is>
+      </c>
+      <c r="J4" t="inlineStr">
+        <is>
           <t>publishedVersion</t>
         </is>
       </c>
-      <c r="J4" t="inlineStr">
-        <is>
-          <t>hybrid</t>
-        </is>
-      </c>
       <c r="K4" t="inlineStr">
         <is>
+          <t>bronze</t>
+        </is>
+      </c>
+      <c r="L4" t="inlineStr">
+        <is>
           <t>en</t>
         </is>
       </c>
-      <c r="L4" t="inlineStr">
+      <c r="M4" t="inlineStr">
         <is>
           <t>0</t>
         </is>
       </c>
-      <c r="M4" t="inlineStr">
+      <c r="N4" t="inlineStr">
         <is>
           <t>2023</t>
         </is>
       </c>
-      <c r="N4" t="inlineStr">
+      <c r="O4" t="inlineStr">
         <is>
           <t>NA</t>
         </is>
       </c>
-      <c r="O4" t="inlineStr">
-        <is>
-          <t>https://doi.org/10.1080/19439342.2023.2217164</t>
-        </is>
-      </c>
       <c r="P4" t="inlineStr">
+        <is>
+          <t>https://doi.org/10.1182/blood-2023-180109</t>
+        </is>
+      </c>
+      <c r="Q4" t="inlineStr">
         <is>
           <t>article</t>
         </is>
@@ -688,80 +708,85 @@
     <row r="5">
       <c r="A5" t="inlineStr">
         <is>
-          <t>John F. Seymour, Chan Y. Cheah, Ricardo Parrondo, Meghan C. Thompson, Don A. Stevens, Masa Lasica, Michael L. Wang, Abhijeet Kumar, Judith Trotman, Maan Alwan, Wei Ding, Kunthel By, Bilal Tariq, Xiangmei Chen, Shannon Fabre, Jason C. Paik, Amit Kumar Agarwal, Constantine S. Tam</t>
+          <t>Sanjay V. Menghani, Jessica P. Diaz-Hanson, Alex Heimbigner, Chelby Wakefield, Deborah Fuchs, Candace Y. Reveles, Catherine M. Spier, Akshay Amaraneni, Abhijeet Kumar</t>
         </is>
       </c>
       <c r="B5" t="inlineStr">
         <is>
-          <t>https://openalex.org/W4389231314</t>
+          <t xml:space="preserve">; ; ; ; ; ; ; ; </t>
         </is>
       </c>
       <c r="C5" t="inlineStr">
         <is>
-          <t>First Results from a Phase 1, First-in-Human Study of the Bruton's Tyrosine Kinase (BTK) Degrader Bgb-16673 in Patients (Pts) with Relapsed or Refractory (R/R) B-Cell Malignancies (BGB-16673-101)</t>
+          <t>https://openalex.org/W4390340514</t>
         </is>
       </c>
       <c r="D5" t="inlineStr">
         <is>
-          <t>2023-11-28</t>
+          <t>Peripheral T-Cell Lymphoma in a Patient Previously Diagnosed With Sarcoidosis</t>
         </is>
       </c>
       <c r="E5" t="inlineStr">
         <is>
-          <t>Blood</t>
+          <t>2023-12-01</t>
         </is>
       </c>
       <c r="F5" t="inlineStr">
         <is>
-          <t>Elsevier BV</t>
+          <t>Journal of hematology</t>
         </is>
       </c>
       <c r="G5" t="inlineStr">
         <is>
-          <t>https://doi.org/10.1182/blood-2023-180109</t>
+          <t>N/A</t>
         </is>
       </c>
       <c r="H5" t="inlineStr">
         <is>
-          <t>N/A</t>
+          <t>https://doi.org/10.14740/jh1173</t>
         </is>
       </c>
       <c r="I5" t="inlineStr">
         <is>
+          <t>cc-by-nc</t>
+        </is>
+      </c>
+      <c r="J5" t="inlineStr">
+        <is>
           <t>publishedVersion</t>
         </is>
       </c>
-      <c r="J5" t="inlineStr">
-        <is>
-          <t>bronze</t>
-        </is>
-      </c>
       <c r="K5" t="inlineStr">
         <is>
+          <t>hybrid</t>
+        </is>
+      </c>
+      <c r="L5" t="inlineStr">
+        <is>
           <t>en</t>
         </is>
       </c>
-      <c r="L5" t="inlineStr">
+      <c r="M5" t="inlineStr">
         <is>
           <t>0</t>
         </is>
       </c>
-      <c r="M5" t="inlineStr">
+      <c r="N5" t="inlineStr">
         <is>
           <t>2023</t>
         </is>
       </c>
-      <c r="N5" t="inlineStr">
-        <is>
-          <t>NA</t>
-        </is>
-      </c>
       <c r="O5" t="inlineStr">
         <is>
-          <t>https://doi.org/10.1182/blood-2023-180109</t>
+          <t>https://pubmed.ncbi.nlm.nih.gov/38188478</t>
         </is>
       </c>
       <c r="P5" t="inlineStr">
+        <is>
+          <t>https://doi.org/10.14740/jh1173</t>
+        </is>
+      </c>
+      <c r="Q5" t="inlineStr">
         <is>
           <t>article</t>
         </is>
@@ -770,80 +795,85 @@
     <row r="6">
       <c r="A6" t="inlineStr">
         <is>
-          <t>Sanjay V. Menghani, Jessica P. Diaz-Hanson, Alex Heimbigner, Chelby Wakefield, Deborah Fuchs, Candace Y. Reveles, Catherine M. Spier, Akshay Amaraneni, Abhijeet Kumar</t>
+          <t>Lisa Bogler, Christian Bommer, Cara Ebert, Abhijeet Kumar, S. V. Subramanian, Malavika A. Subramanyam, Sebastián Vollmer</t>
         </is>
       </c>
       <c r="B6" t="inlineStr">
         <is>
-          <t>https://openalex.org/W4390340514</t>
+          <t>Centre for Modern Indian Studies, University of Goettingen, Goettingen, Germany; Centre for Modern Indian Studies, University of Goettingen, Goettingen, Germany; IZA–Institute of Labour Economics, Bonn, Germany; RWI – Leibniz Institute for Economic Research, Essen, Germany; Centre for Modern Indian Studies, University of Goettingen, Goettingen, Germany; Department of Social and Behavioural Sciences, Harvard T.H. Chan School of Public Health, Boston, MA, USA; Social Epidemiology, IIT Gandhinagar, Gandhinagar, India; Centre for Modern Indian Studies, University of Goettingen, Goettingen, Germany</t>
         </is>
       </c>
       <c r="C6" t="inlineStr">
         <is>
-          <t>Peripheral T-Cell Lymphoma in a Patient Previously Diagnosed With Sarcoidosis</t>
+          <t>https://openalex.org/W4378908533</t>
         </is>
       </c>
       <c r="D6" t="inlineStr">
         <is>
-          <t>2023-12-01</t>
+          <t>Effects of a large-scale participatory learning and action programme in women’s groups on health, nutrition, water, sanitation, and hygiene: a cluster-randomised controlled trial in Bihar, India</t>
         </is>
       </c>
       <c r="E6" t="inlineStr">
         <is>
-          <t>Journal of hematology</t>
+          <t>2023-05-30</t>
         </is>
       </c>
       <c r="F6" t="inlineStr">
         <is>
-          <t>N/A</t>
+          <t>Journal of Development Effectiveness</t>
         </is>
       </c>
       <c r="G6" t="inlineStr">
         <is>
-          <t>https://doi.org/10.14740/jh1173</t>
+          <t>Taylor &amp; Francis</t>
         </is>
       </c>
       <c r="H6" t="inlineStr">
         <is>
-          <t>cc-by-nc</t>
+          <t>https://doi.org/10.1080/19439342.2023.2217164</t>
         </is>
       </c>
       <c r="I6" t="inlineStr">
         <is>
+          <t>cc-by-nc-nd</t>
+        </is>
+      </c>
+      <c r="J6" t="inlineStr">
+        <is>
           <t>publishedVersion</t>
         </is>
       </c>
-      <c r="J6" t="inlineStr">
+      <c r="K6" t="inlineStr">
         <is>
           <t>hybrid</t>
         </is>
       </c>
-      <c r="K6" t="inlineStr">
+      <c r="L6" t="inlineStr">
         <is>
           <t>en</t>
         </is>
       </c>
-      <c r="L6" t="inlineStr">
+      <c r="M6" t="inlineStr">
         <is>
           <t>0</t>
         </is>
       </c>
-      <c r="M6" t="inlineStr">
+      <c r="N6" t="inlineStr">
         <is>
           <t>2023</t>
         </is>
       </c>
-      <c r="N6" t="inlineStr">
-        <is>
-          <t>https://pubmed.ncbi.nlm.nih.gov/38188478</t>
-        </is>
-      </c>
       <c r="O6" t="inlineStr">
         <is>
-          <t>https://doi.org/10.14740/jh1173</t>
+          <t>NA</t>
         </is>
       </c>
       <c r="P6" t="inlineStr">
+        <is>
+          <t>https://doi.org/10.1080/19439342.2023.2217164</t>
+        </is>
+      </c>
+      <c r="Q6" t="inlineStr">
         <is>
           <t>article</t>
         </is>
